--- a/plan/交通.xlsx
+++ b/plan/交通.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
     <sheet name="Day 2" sheetId="2" r:id="rId2"/>
     <sheet name="Day 3" sheetId="3" r:id="rId3"/>
     <sheet name="Day 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Day 7" sheetId="5" r:id="rId5"/>
+    <sheet name="Day 10" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>关西国际机场-&gt;神户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +399,162 @@
 旅途时间：大约 23 分钟 行程总价： 230円
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京都阿尔蒙特旅馆 -&gt; 大阪本町路线客栈酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘公共交通工具前往 Hotel Route Inn Osaka Hommachi 的路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+アルモントホテル京都
+日本〒601-8005
+京都府京都市 南区東九条西岩本町26-1
+ 步行 步行到 Kyoto Station
+大约 10 分钟 (700 米)
+Kyoto Station (第 13,14 站台)
+ JR Tokaido / Sanyo Shinkansen JR Tokaido / Sanyo Shinkansen 3,220円 のぞみ 新干线 Nozomi 177 开往：Hakata
+下午4:00 - 下午4:13 （13 分钟， 1 站）
+Shinosaka Station (第 1 站台)
+ 地铁Midosuji Line 240円 各停 地铁 开往：Abiko
+下午4:32 - 下午4:43 （11 分钟， 5 站）
+Honmachi Station (第 2 站台)
+ 地铁Chuo Line 各停 地铁 开往：Cosmo Square
+下午4:47 - 下午4:48 （1 分钟， 1 站）
+Awaza Station
+ 步行 步行到 Hotel Route Inn Osaka Hommachi
+大约 4 分钟 (300 米)
+Hotel Route Inn Osaka Hommachi
+2-6-6 Nishihonmachi
+Nishi Ward, Osaka, Osaka Prefecture 550-0005日本
+旅途时间：大约 1 小时 2 分钟 行程总价： 3,460円
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪本町路线客栈酒店 -&gt; 奈良公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘公共交通工具前往 奈良公园 的路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hotel Route Inn Osaka Hommachi
+2-6-6 Nishihonmachi
+Nishi Ward, Osaka, Osaka Prefecture 550-0005日本
+ 步行 步行到 Awaza Station
+大约 4 分钟 (300 米)
+Awaza Station
+ 地铁Chuo Line 280円 各停 地铁 开往：Gakkennaratomigaoka
+下午4:13 - 下午4:29 （16 分钟， 8 站）
+Nagata Station
+继续搭乘 火车Kintetsu Keihanna Line（不转乘） 530円 各停 火车 开往：Gakkennaratomigaoka
+下午4:30 - 下午4:42 （12 分钟， 4 站）
+Ikoma Station (第 3 站台)
+ 火车Kintetsu Nara Line 急行 火车 开往：Kintetsunara
+下午4:46 - 下午5:01 （15 分钟， 4 站）
+Kintetsunara Station
+ 步行 步行到 奈良公园
+大约 21 分钟 (1.8 公里)
+奈良公园
+469 Zoshicho
+Nara, 630-8211日本
+旅途时间：大约 1 小时 13 分钟 行程总价： 810円
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘公共交通工具前往 Kansai International Airport 的路线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Hotel Route Inn Osaka Hommachi
+2-6-6 Nishihonmachi
+Nishi Ward, Osaka, Osaka Prefecture 550-0005日本
+ 步行 步行到 Awaza Station
+大约 6 分钟 (400 米)
+Awaza Station
+ 地铁Sennichimae Line 180円 各停 地铁 开往：Minamitatsumi
+下午4:44 - 下午4:49 （5 分钟， 3 站）
+Nanba Station (第 1 站台)
+ 步行 步行到 Nanba Station
+大约 9 分钟（转乘时间：11 分钟）
+Nanba Station
+ 火车Nankai Limited Express 1,430円 有料特急 火车 Nankai Limited Express Rapid β 57 开往：Kansai Airport
+下午5:00 - 下午5:38 （38 分钟， 7 站）
+Kansai Airport Station
+ 步行 步行到 Kansai International Airport
+大约 16 分钟 (1.3 公里)
+Kansai International Airport
+1 Senshukukokita
+Izumisano, Osaka Prefecture 549-0001日本
+旅途时间：大约 1 小时 15 分钟 行程总价： 1,610円
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪本町路线客栈酒店 -&gt; 关西国际机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1723,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1757,4 +1915,73 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="127.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="338.25" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="338.25" thickTop="1">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="125.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="20.25" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="338.25" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>